--- a/xtt_demo/ZXXT_DEMO_030_C_T.XLSX
+++ b/xtt_demo/ZXXT_DEMO_030_C_T.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\moldab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA276DC8-2E14-4937-9FCE-66E3C82E24F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A2878C-BF1F-4F8A-BC47-4F9B9362F48B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <t xml:space="preserve">Title: </t>
@@ -81,12 +81,27 @@
   <si>
     <t>{R-T;direction=column}</t>
   </si>
+  <si>
+    <t>Multi sheet issues with print preview</t>
+  </si>
+  <si>
+    <t>If you have problems with printing the document:</t>
+  </si>
+  <si>
+    <t>1)Create 1st sheet like this</t>
+  </si>
+  <si>
+    <t>2)or call macro like in example 070 to save file with a new name (so the entire file would be recreated)</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/office/vba/api/excel.workbook.saveas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -260,6 +275,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -593,7 +623,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -637,8 +667,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -653,8 +684,10 @@
     <xf numFmtId="4" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -688,6 +721,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -975,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -991,7 +1025,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{30842041-0ED7-4EF7-B602-708E75DAB225}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
